--- a/RESULTS/COLLECTED ORACLE/COLLECTED ORACLE RESULTS/COLLECTED_RESULTS_MAIN/ICOLOR_ORACLE_COLLECTED_RESULTS.xlsx
+++ b/RESULTS/COLLECTED ORACLE/COLLECTED ORACLE RESULTS/COLLECTED_RESULTS_MAIN/ICOLOR_ORACLE_COLLECTED_RESULTS.xlsx
@@ -914,11 +914,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1296454624"/>
-        <c:axId val="-1296452992"/>
+        <c:axId val="-151541424"/>
+        <c:axId val="-151540064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1296454624"/>
+        <c:axId val="-151541424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -960,7 +960,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1296452992"/>
+        <c:crossAx val="-151540064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -968,9 +968,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1296452992"/>
+        <c:axId val="-151540064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1018,7 +1019,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1296454624"/>
+        <c:crossAx val="-151541424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1647,9 +1648,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1155700</xdr:colOff>
+      <xdr:colOff>1181100</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>

--- a/RESULTS/COLLECTED ORACLE/COLLECTED ORACLE RESULTS/COLLECTED_RESULTS_MAIN/ICOLOR_ORACLE_COLLECTED_RESULTS.xlsx
+++ b/RESULTS/COLLECTED ORACLE/COLLECTED ORACLE RESULTS/COLLECTED_RESULTS_MAIN/ICOLOR_ORACLE_COLLECTED_RESULTS.xlsx
@@ -369,6 +369,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>ICOLOR HUMAN ORACLE</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -914,11 +939,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-151541424"/>
-        <c:axId val="-151540064"/>
+        <c:axId val="1469276320"/>
+        <c:axId val="1469278368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-151541424"/>
+        <c:axId val="1469276320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -960,7 +985,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-151540064"/>
+        <c:crossAx val="1469278368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -968,7 +993,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-151540064"/>
+        <c:axId val="1469278368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -1019,7 +1044,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-151541424"/>
+        <c:crossAx val="1469276320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>

--- a/RESULTS/COLLECTED ORACLE/COLLECTED ORACLE RESULTS/COLLECTED_RESULTS_MAIN/ICOLOR_ORACLE_COLLECTED_RESULTS.xlsx
+++ b/RESULTS/COLLECTED ORACLE/COLLECTED ORACLE RESULTS/COLLECTED_RESULTS_MAIN/ICOLOR_ORACLE_COLLECTED_RESULTS.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/staque/Development/GitHub/CS-660-Semester-Project-V2/RESULTS/COLLECTED ORACLE/COLLECTED ORACLE RESULTS/COLLECTED_RESULTS_MAIN/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/srose3/Development/GitHub/CS-660-Semester-Project-V2/RESULTS/COLLECTED ORACLE/COLLECTED ORACLE RESULTS/COLLECTED_RESULTS_MAIN/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20440" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="28240" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ICOLOR_elementAddedInAge" sheetId="1" r:id="rId1"/>
@@ -311,8 +311,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -333,15 +335,17 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -939,11 +943,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1469276320"/>
-        <c:axId val="1469278368"/>
+        <c:axId val="49474016"/>
+        <c:axId val="49427344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1469276320"/>
+        <c:axId val="49474016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -985,7 +989,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1469278368"/>
+        <c:crossAx val="49427344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -993,7 +997,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1469278368"/>
+        <c:axId val="49427344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -1044,7 +1048,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1469276320"/>
+        <c:crossAx val="49474016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3494,7 +3498,7 @@
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="A1:Q1"/>
+      <selection activeCell="B11" sqref="B11:Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
